--- a/sh_findings/s3.xlsx
+++ b/sh_findings/s3.xlsx
@@ -434,12 +434,12 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>Id</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>title</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
